--- a/data/pca/factorExposure/factorExposure_2008-12-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2008-12-22.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.0200053770683867</v>
+        <v>-0.01844661562886464</v>
       </c>
       <c r="C2">
-        <v>-0.01081032918350294</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.01258614179885028</v>
+      </c>
+      <c r="D2">
+        <v>0.01309322126278137</v>
+      </c>
+      <c r="E2">
+        <v>0.01836843043521177</v>
+      </c>
+      <c r="F2">
+        <v>-0.004517993170714872</v>
+      </c>
+      <c r="G2">
+        <v>0.0156853391519931</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +757,367 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08002975086698116</v>
+        <v>-0.0831669230224541</v>
       </c>
       <c r="C4">
-        <v>-0.08408797845063892</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.08707046048272553</v>
+      </c>
+      <c r="D4">
+        <v>-0.0609926082360596</v>
+      </c>
+      <c r="E4">
+        <v>0.03340815567843988</v>
+      </c>
+      <c r="F4">
+        <v>-0.02129847712000469</v>
+      </c>
+      <c r="G4">
+        <v>0.02645229202547877</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.004543712652868206</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.001226039616826674</v>
+      </c>
+      <c r="D5">
+        <v>-0.000246331999995154</v>
+      </c>
+      <c r="E5">
+        <v>-0.006390448642875115</v>
+      </c>
+      <c r="F5">
+        <v>-0.002566705383459347</v>
+      </c>
+      <c r="G5">
+        <v>-0.005619343468304841</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1689439398500212</v>
+        <v>-0.1703462185053136</v>
       </c>
       <c r="C6">
-        <v>0.01757557173679729</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.00858102951258494</v>
+      </c>
+      <c r="D6">
+        <v>-0.06297417568676857</v>
+      </c>
+      <c r="E6">
+        <v>-0.06235566984299686</v>
+      </c>
+      <c r="F6">
+        <v>-0.02728488906670616</v>
+      </c>
+      <c r="G6">
+        <v>-0.01000980336022851</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05205811046073366</v>
+        <v>-0.05459822395989865</v>
       </c>
       <c r="C7">
-        <v>-0.0580537081449523</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.06004446071345597</v>
+      </c>
+      <c r="D7">
+        <v>-0.06806170300399535</v>
+      </c>
+      <c r="E7">
+        <v>0.07535112212940341</v>
+      </c>
+      <c r="F7">
+        <v>0.006251551534805555</v>
+      </c>
+      <c r="G7">
+        <v>0.069165899146705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.04672295595848603</v>
+        <v>-0.04585638273924947</v>
       </c>
       <c r="C8">
-        <v>-0.05471099184987362</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.05288538923098209</v>
+      </c>
+      <c r="D8">
+        <v>0.01166954016573841</v>
+      </c>
+      <c r="E8">
+        <v>0.03375180609372372</v>
+      </c>
+      <c r="F8">
+        <v>0.01226672208141688</v>
+      </c>
+      <c r="G8">
+        <v>0.00585214609837983</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.0572514929641807</v>
+        <v>-0.06206586122000607</v>
       </c>
       <c r="C9">
-        <v>-0.09239081665022499</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.09306877004741959</v>
+      </c>
+      <c r="D9">
+        <v>-0.09237410419750822</v>
+      </c>
+      <c r="E9">
+        <v>0.04833414721620868</v>
+      </c>
+      <c r="F9">
+        <v>-0.006132328383694773</v>
+      </c>
+      <c r="G9">
+        <v>0.0005333566064020974</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1182598783526883</v>
+        <v>-0.1034326602939169</v>
       </c>
       <c r="C10">
-        <v>0.1462327453727783</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.1323960871883348</v>
+      </c>
+      <c r="D10">
+        <v>0.09438992645778661</v>
+      </c>
+      <c r="E10">
+        <v>0.05738128246865846</v>
+      </c>
+      <c r="F10">
+        <v>0.02554533506054274</v>
+      </c>
+      <c r="G10">
+        <v>-0.0213580239070908</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.07817324008982407</v>
+        <v>-0.07554634956155813</v>
       </c>
       <c r="C11">
-        <v>-0.1371564778381235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.1362975138923292</v>
+      </c>
+      <c r="D11">
+        <v>-0.05454088911201584</v>
+      </c>
+      <c r="E11">
+        <v>0.06247871587290177</v>
+      </c>
+      <c r="F11">
+        <v>-0.001137413142133921</v>
+      </c>
+      <c r="G11">
+        <v>-0.01042597629096987</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.07931066413500928</v>
+        <v>-0.0753112388715262</v>
       </c>
       <c r="C12">
-        <v>-0.1642261954530768</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.1606990096340868</v>
+      </c>
+      <c r="D12">
+        <v>-0.05789501527982269</v>
+      </c>
+      <c r="E12">
+        <v>0.06608597941960138</v>
+      </c>
+      <c r="F12">
+        <v>0.00603751938883984</v>
+      </c>
+      <c r="G12">
+        <v>0.0150059737290672</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.03842816066670309</v>
+        <v>-0.04083818097507756</v>
       </c>
       <c r="C13">
-        <v>-0.07226247742743051</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.07512359834419854</v>
+      </c>
+      <c r="D13">
+        <v>-0.03978708724096495</v>
+      </c>
+      <c r="E13">
+        <v>0.0726132030675244</v>
+      </c>
+      <c r="F13">
+        <v>0.01042075622191403</v>
+      </c>
+      <c r="G13">
+        <v>0.02715909890048021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.02101253845508013</v>
+        <v>-0.02323961901264519</v>
       </c>
       <c r="C14">
-        <v>-0.04929827311433052</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.0515521953105171</v>
+      </c>
+      <c r="D14">
+        <v>-0.04862948071248194</v>
+      </c>
+      <c r="E14">
+        <v>0.06785160550991277</v>
+      </c>
+      <c r="F14">
+        <v>0.004875434892629696</v>
+      </c>
+      <c r="G14">
+        <v>-0.01581856670727708</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03336559222917662</v>
+        <v>-0.03319684312821509</v>
       </c>
       <c r="C15">
-        <v>-0.06477079876847447</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.06273461054467276</v>
+      </c>
+      <c r="D15">
+        <v>-0.04808281372722417</v>
+      </c>
+      <c r="E15">
+        <v>0.01648022590727849</v>
+      </c>
+      <c r="F15">
+        <v>0.0201987132274845</v>
+      </c>
+      <c r="G15">
+        <v>0.01869901670743952</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05505751102011936</v>
+        <v>-0.05385144597768682</v>
       </c>
       <c r="C16">
-        <v>-0.158440342358032</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.157670375342931</v>
+      </c>
+      <c r="D16">
+        <v>-0.05695533407118363</v>
+      </c>
+      <c r="E16">
+        <v>0.05017591426871114</v>
+      </c>
+      <c r="F16">
+        <v>-0.01814515774926969</v>
+      </c>
+      <c r="G16">
+        <v>-0.01851334917058674</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.007779460605392783</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0.004562934534005026</v>
+      </c>
+      <c r="D17">
+        <v>0.004252922900433866</v>
+      </c>
+      <c r="E17">
+        <v>-0.01223405497545525</v>
+      </c>
+      <c r="F17">
+        <v>0.00975339008659362</v>
+      </c>
+      <c r="G17">
+        <v>-0.005484023007425201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.04459139739155196</v>
+        <v>-0.05558541912259364</v>
       </c>
       <c r="C18">
-        <v>-0.05512151165800722</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.04904528062877908</v>
+      </c>
+      <c r="D18">
+        <v>0.006241119316735349</v>
+      </c>
+      <c r="E18">
+        <v>-0.06069155894790621</v>
+      </c>
+      <c r="F18">
+        <v>-0.001157109605431179</v>
+      </c>
+      <c r="G18">
+        <v>-0.009773848911689869</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.05739057616741401</v>
+        <v>-0.05646461540933957</v>
       </c>
       <c r="C20">
-        <v>-0.1063469458163711</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.1038168940539173</v>
+      </c>
+      <c r="D20">
+        <v>-0.07616775925348922</v>
+      </c>
+      <c r="E20">
+        <v>0.05462871454811037</v>
+      </c>
+      <c r="F20">
+        <v>0.00455101536517334</v>
+      </c>
+      <c r="G20">
+        <v>0.004194889488552635</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04258883151372086</v>
+        <v>-0.04445932983691414</v>
       </c>
       <c r="C21">
-        <v>-0.06996248318096139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.06562120140370271</v>
+      </c>
+      <c r="D21">
+        <v>-0.0263129101063979</v>
+      </c>
+      <c r="E21">
+        <v>0.05557129832489523</v>
+      </c>
+      <c r="F21">
+        <v>-0.002287898374685186</v>
+      </c>
+      <c r="G21">
+        <v>0.01907682093715636</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04440383720975456</v>
+        <v>-0.0447821263773392</v>
       </c>
       <c r="C22">
-        <v>-0.03799133037567416</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.04075290020159414</v>
+      </c>
+      <c r="D22">
+        <v>0.09633284189080495</v>
+      </c>
+      <c r="E22">
+        <v>-0.05864170987002885</v>
+      </c>
+      <c r="F22">
+        <v>-0.1085196805015222</v>
+      </c>
+      <c r="G22">
+        <v>-0.1212276881922161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.04441366551220895</v>
+        <v>-0.04479068566851235</v>
       </c>
       <c r="C23">
-        <v>-0.03798504413343809</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.0407474339173005</v>
+      </c>
+      <c r="D23">
+        <v>0.09637206191854002</v>
+      </c>
+      <c r="E23">
+        <v>-0.05864409070776123</v>
+      </c>
+      <c r="F23">
+        <v>-0.1085153554222884</v>
+      </c>
+      <c r="G23">
+        <v>-0.121296599008971</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06473595686688806</v>
+        <v>-0.06321528660325475</v>
       </c>
       <c r="C24">
-        <v>-0.1424690207677505</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.1394790971948668</v>
+      </c>
+      <c r="D24">
+        <v>-0.05988481738316098</v>
+      </c>
+      <c r="E24">
+        <v>0.06100409873427605</v>
+      </c>
+      <c r="F24">
+        <v>-0.006323117741415138</v>
+      </c>
+      <c r="G24">
+        <v>-0.002663713244568428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.07057601756990002</v>
+        <v>-0.06813415223098879</v>
       </c>
       <c r="C25">
-        <v>-0.1292414009660885</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.1270057439064877</v>
+      </c>
+      <c r="D25">
+        <v>-0.04960817487083662</v>
+      </c>
+      <c r="E25">
+        <v>0.08008426799551525</v>
+      </c>
+      <c r="F25">
+        <v>0.0198705885851195</v>
+      </c>
+      <c r="G25">
+        <v>0.02916294836095403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.05707872556744915</v>
+        <v>-0.06087189707210172</v>
       </c>
       <c r="C26">
-        <v>-0.07391764540122063</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.07794751831292114</v>
+      </c>
+      <c r="D26">
+        <v>-0.02620052037867723</v>
+      </c>
+      <c r="E26">
+        <v>0.07659062320689511</v>
+      </c>
+      <c r="F26">
+        <v>0.01337979631785051</v>
+      </c>
+      <c r="G26">
+        <v>0.01530293054710743</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1309,252 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1741251454971808</v>
+        <v>-0.1781019452451668</v>
       </c>
       <c r="C28">
-        <v>0.2240433368415723</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.2259167874297985</v>
+      </c>
+      <c r="D28">
+        <v>-0.003023423488804539</v>
+      </c>
+      <c r="E28">
+        <v>0.153277195351943</v>
+      </c>
+      <c r="F28">
+        <v>0.05704676213574675</v>
+      </c>
+      <c r="G28">
+        <v>0.00627029319671773</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02509429561585872</v>
+        <v>-0.02674001965351917</v>
       </c>
       <c r="C29">
-        <v>-0.05497750131680056</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.05470805302592422</v>
+      </c>
+      <c r="D29">
+        <v>-0.01253412935035658</v>
+      </c>
+      <c r="E29">
+        <v>0.06850566926020298</v>
+      </c>
+      <c r="F29">
+        <v>0.002631298078407996</v>
+      </c>
+      <c r="G29">
+        <v>-0.01785696533861317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03142953876658876</v>
+        <v>-0.03448591253136894</v>
       </c>
       <c r="C30">
-        <v>-0.06627371199024035</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.07179027240013963</v>
+      </c>
+      <c r="D30">
+        <v>-0.1347697158000656</v>
+      </c>
+      <c r="E30">
+        <v>0.06421972731018835</v>
+      </c>
+      <c r="F30">
+        <v>0.0479723861769978</v>
+      </c>
+      <c r="G30">
+        <v>0.04291466217398329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.0538659010393988</v>
+        <v>-0.05279106908777326</v>
       </c>
       <c r="C31">
-        <v>-0.03741059140994872</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.03959612795767428</v>
+      </c>
+      <c r="D31">
+        <v>-0.0054782553918558</v>
+      </c>
+      <c r="E31">
+        <v>0.01832183964203873</v>
+      </c>
+      <c r="F31">
+        <v>-0.04800466792887463</v>
+      </c>
+      <c r="G31">
+        <v>-0.02195560359386282</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04244446907496351</v>
+        <v>-0.04593644411258836</v>
       </c>
       <c r="C32">
-        <v>-0.05826248791823799</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.05671608200772623</v>
+      </c>
+      <c r="D32">
+        <v>-0.01667839490146314</v>
+      </c>
+      <c r="E32">
+        <v>0.001694083762094756</v>
+      </c>
+      <c r="F32">
+        <v>0.01728792840804017</v>
+      </c>
+      <c r="G32">
+        <v>0.02048134864712343</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07707816290327085</v>
+        <v>-0.08112927386818171</v>
       </c>
       <c r="C33">
-        <v>-0.1144572145804635</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.1232368596574186</v>
+      </c>
+      <c r="D33">
+        <v>-0.07058429076718316</v>
+      </c>
+      <c r="E33">
+        <v>0.0593746826260334</v>
+      </c>
+      <c r="F33">
+        <v>-0.01286440801577969</v>
+      </c>
+      <c r="G33">
+        <v>-0.03064062572676696</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05258703697221716</v>
+        <v>-0.05171357321094436</v>
       </c>
       <c r="C34">
-        <v>-0.1329789091390274</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.1318151149821366</v>
+      </c>
+      <c r="D34">
+        <v>-0.09218462223409696</v>
+      </c>
+      <c r="E34">
+        <v>0.05653272830650236</v>
+      </c>
+      <c r="F34">
+        <v>0.02340412568784756</v>
+      </c>
+      <c r="G34">
+        <v>-0.02795690850358571</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02740109299464246</v>
+        <v>-0.02964673361540708</v>
       </c>
       <c r="C35">
-        <v>-0.02023046391569742</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.02311671226397599</v>
+      </c>
+      <c r="D35">
+        <v>-0.01032509843766078</v>
+      </c>
+      <c r="E35">
+        <v>0.01967714950408589</v>
+      </c>
+      <c r="F35">
+        <v>0.01456152235050346</v>
+      </c>
+      <c r="G35">
+        <v>-0.02368904065983353</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02524834653104578</v>
+        <v>-0.02767311683609048</v>
       </c>
       <c r="C36">
-        <v>-0.05659774083142213</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.05504122954578686</v>
+      </c>
+      <c r="D36">
+        <v>-0.06382320508779958</v>
+      </c>
+      <c r="E36">
+        <v>-0.01320031739025986</v>
+      </c>
+      <c r="F36">
+        <v>0.02682180424826174</v>
+      </c>
+      <c r="G36">
+        <v>-0.0760040404053469</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0.0005591566729926525</v>
+        <v>-0.004134683342533336</v>
       </c>
       <c r="C37">
-        <v>0.0005257544356622446</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>0.008005930291730416</v>
+      </c>
+      <c r="D37">
+        <v>-0.002259848615064211</v>
+      </c>
+      <c r="E37">
+        <v>0.01126566149010337</v>
+      </c>
+      <c r="F37">
+        <v>-0.003091850923896114</v>
+      </c>
+      <c r="G37">
+        <v>0.002909862827376395</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1562,91 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.07925255528468178</v>
+        <v>-0.07445629152149739</v>
       </c>
       <c r="C39">
-        <v>-0.1569278773935908</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.1504490519912916</v>
+      </c>
+      <c r="D39">
+        <v>-0.02858591022369417</v>
+      </c>
+      <c r="E39">
+        <v>0.124235680186052</v>
+      </c>
+      <c r="F39">
+        <v>-0.03553198666234814</v>
+      </c>
+      <c r="G39">
+        <v>0.009324148724399142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.04924091503880541</v>
+        <v>-0.05220068545762412</v>
       </c>
       <c r="C40">
-        <v>-0.07559199221811269</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.08017329511443778</v>
+      </c>
+      <c r="D40">
+        <v>-0.01358463520440465</v>
+      </c>
+      <c r="E40">
+        <v>0.037658734179791</v>
+      </c>
+      <c r="F40">
+        <v>0.04579555424936504</v>
+      </c>
+      <c r="G40">
+        <v>-0.006063141542372049</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.02959445108319998</v>
+        <v>-0.0295313875713226</v>
       </c>
       <c r="C41">
-        <v>-0.02441911322730902</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.02571734438531235</v>
+      </c>
+      <c r="D41">
+        <v>0.01002933433188449</v>
+      </c>
+      <c r="E41">
+        <v>-0.01196960561229573</v>
+      </c>
+      <c r="F41">
+        <v>0.01023685697608154</v>
+      </c>
+      <c r="G41">
+        <v>-0.0008090367184331563</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1654,206 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04377914891387917</v>
+        <v>-0.04212047083244559</v>
       </c>
       <c r="C43">
-        <v>-0.04202729724531338</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.03935515959049495</v>
+      </c>
+      <c r="D43">
+        <v>0.01195314138586686</v>
+      </c>
+      <c r="E43">
+        <v>0.01498546514446501</v>
+      </c>
+      <c r="F43">
+        <v>-0.0256557628812052</v>
+      </c>
+      <c r="G43">
+        <v>-0.03891838040811807</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05604157384430951</v>
+        <v>-0.06006815327454747</v>
       </c>
       <c r="C44">
-        <v>-0.08814771939599376</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.0912513246730725</v>
+      </c>
+      <c r="D44">
+        <v>-0.3068565741726865</v>
+      </c>
+      <c r="E44">
+        <v>0.06276719123361467</v>
+      </c>
+      <c r="F44">
+        <v>0.1100731859133639</v>
+      </c>
+      <c r="G44">
+        <v>-0.1120085215358708</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0004597685633814551</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>0.001210227293128506</v>
+      </c>
+      <c r="D45">
+        <v>-0.0001435063603188848</v>
+      </c>
+      <c r="E45">
+        <v>0.001258940117622364</v>
+      </c>
+      <c r="F45">
+        <v>-0.005363792835620068</v>
+      </c>
+      <c r="G45">
+        <v>0.004293246902441952</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02884624135671473</v>
+        <v>-0.02990572671904119</v>
       </c>
       <c r="C46">
-        <v>-0.04404227412915817</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.04179363201467621</v>
+      </c>
+      <c r="D46">
+        <v>-0.006132739556800104</v>
+      </c>
+      <c r="E46">
+        <v>0.0612753965872691</v>
+      </c>
+      <c r="F46">
+        <v>-0.03819271430610723</v>
+      </c>
+      <c r="G46">
+        <v>-0.01770227417154674</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05645648910609109</v>
+        <v>-0.05404382611660798</v>
       </c>
       <c r="C47">
-        <v>-0.0431926610138554</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.0414898969530298</v>
+      </c>
+      <c r="D47">
+        <v>0.03036207675783171</v>
+      </c>
+      <c r="E47">
+        <v>-0.01437836445596174</v>
+      </c>
+      <c r="F47">
+        <v>-0.06118846208978913</v>
+      </c>
+      <c r="G47">
+        <v>-0.04013780058591723</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.04712217121396879</v>
+        <v>-0.04899711101056322</v>
       </c>
       <c r="C48">
-        <v>-0.07198350643020275</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.07145304768485868</v>
+      </c>
+      <c r="D48">
+        <v>-0.03583700120606466</v>
+      </c>
+      <c r="E48">
+        <v>0.06006669390933288</v>
+      </c>
+      <c r="F48">
+        <v>-0.001390637385425692</v>
+      </c>
+      <c r="G48">
+        <v>0.03288887720474599</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1839215152220428</v>
+        <v>-0.1914022602280265</v>
       </c>
       <c r="C49">
-        <v>0.02721599322625111</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.02387415154560485</v>
+      </c>
+      <c r="D49">
+        <v>-0.02773758825646252</v>
+      </c>
+      <c r="E49">
+        <v>-0.01560115374810471</v>
+      </c>
+      <c r="F49">
+        <v>0.04604594261746994</v>
+      </c>
+      <c r="G49">
+        <v>0.07867650156262379</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05324459017031383</v>
+        <v>-0.05277833111191562</v>
       </c>
       <c r="C50">
-        <v>-0.03656147207985797</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.03947712430647136</v>
+      </c>
+      <c r="D50">
+        <v>-0.01973609231522246</v>
+      </c>
+      <c r="E50">
+        <v>0.009803941369786899</v>
+      </c>
+      <c r="F50">
+        <v>-0.04269884563688794</v>
+      </c>
+      <c r="G50">
+        <v>-0.009042099247032528</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1861,137 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1412243718162597</v>
+        <v>-0.1362654974307448</v>
       </c>
       <c r="C52">
-        <v>-0.03483985384718753</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.0333681858758975</v>
+      </c>
+      <c r="D52">
+        <v>-0.0420430360478698</v>
+      </c>
+      <c r="E52">
+        <v>-0.08645725720840938</v>
+      </c>
+      <c r="F52">
+        <v>-0.08972595464651817</v>
+      </c>
+      <c r="G52">
+        <v>-0.03829537534446502</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1683296310052674</v>
+        <v>-0.1621484001614656</v>
       </c>
       <c r="C53">
-        <v>0.01422840952289336</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.01201062833695899</v>
+      </c>
+      <c r="D53">
+        <v>-0.07265881906145322</v>
+      </c>
+      <c r="E53">
+        <v>-0.124462151028627</v>
+      </c>
+      <c r="F53">
+        <v>-0.141166533893512</v>
+      </c>
+      <c r="G53">
+        <v>-0.0328629118837419</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01100658295262915</v>
+        <v>-0.01316525018422196</v>
       </c>
       <c r="C54">
-        <v>-0.04171428957212588</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.04188155539814637</v>
+      </c>
+      <c r="D54">
+        <v>-0.01945382695844981</v>
+      </c>
+      <c r="E54">
+        <v>0.03709914842650535</v>
+      </c>
+      <c r="F54">
+        <v>-0.007401315376087714</v>
+      </c>
+      <c r="G54">
+        <v>-0.001422177248103828</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.1220721667401932</v>
+        <v>-0.1201982822634982</v>
       </c>
       <c r="C55">
-        <v>-0.01673578765211664</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.01797379535917213</v>
+      </c>
+      <c r="D55">
+        <v>-0.05749809116264915</v>
+      </c>
+      <c r="E55">
+        <v>-0.05692017425419463</v>
+      </c>
+      <c r="F55">
+        <v>-0.1478457775888541</v>
+      </c>
+      <c r="G55">
+        <v>-0.05286120190574431</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1802344701195006</v>
+        <v>-0.1754318018090985</v>
       </c>
       <c r="C56">
-        <v>0.008415191363807329</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.009892723833422963</v>
+      </c>
+      <c r="D56">
+        <v>-0.02104408164405551</v>
+      </c>
+      <c r="E56">
+        <v>-0.1535206851189129</v>
+      </c>
+      <c r="F56">
+        <v>-0.145368825829044</v>
+      </c>
+      <c r="G56">
+        <v>-0.01480691088560053</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1999,436 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04172776931263814</v>
+        <v>-0.04088232555995385</v>
       </c>
       <c r="C58">
-        <v>-0.09729876535067022</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.1080506432901936</v>
+      </c>
+      <c r="D58">
+        <v>0.002090727703711466</v>
+      </c>
+      <c r="E58">
+        <v>0.03859900496305588</v>
+      </c>
+      <c r="F58">
+        <v>-0.02110250110943197</v>
+      </c>
+      <c r="G58">
+        <v>-0.007670674703854548</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1848173306978889</v>
+        <v>-0.1914495215641069</v>
       </c>
       <c r="C59">
-        <v>0.1629047235579801</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.1700623244419408</v>
+      </c>
+      <c r="D59">
+        <v>0.08506357886717376</v>
+      </c>
+      <c r="E59">
+        <v>0.08331812827223192</v>
+      </c>
+      <c r="F59">
+        <v>-0.01547052441473104</v>
+      </c>
+      <c r="G59">
+        <v>0.02472327327311361</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2084814205018548</v>
+        <v>-0.206816948502465</v>
       </c>
       <c r="C60">
-        <v>0.002456756441191956</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.001501621908132784</v>
+      </c>
+      <c r="D60">
+        <v>0.07665838397936706</v>
+      </c>
+      <c r="E60">
+        <v>-0.1301597499639977</v>
+      </c>
+      <c r="F60">
+        <v>-0.05199168793609113</v>
+      </c>
+      <c r="G60">
+        <v>0.1230009845585933</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.06081072466479674</v>
+        <v>-0.05907357812540429</v>
       </c>
       <c r="C61">
-        <v>-0.1326316604510114</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.129295185935547</v>
+      </c>
+      <c r="D61">
+        <v>-0.02685580564500929</v>
+      </c>
+      <c r="E61">
+        <v>0.07339450894636676</v>
+      </c>
+      <c r="F61">
+        <v>-0.005704396722061079</v>
+      </c>
+      <c r="G61">
+        <v>0.01964054405387049</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1703260212628372</v>
+        <v>-0.1666395720093182</v>
       </c>
       <c r="C62">
-        <v>0.005291194738138262</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.005192938512063406</v>
+      </c>
+      <c r="D62">
+        <v>-0.0229278109251834</v>
+      </c>
+      <c r="E62">
+        <v>-0.1319422088766866</v>
+      </c>
+      <c r="F62">
+        <v>-0.1321787980126078</v>
+      </c>
+      <c r="G62">
+        <v>-0.02688668229913511</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.04067566458327848</v>
+        <v>-0.04308403771900738</v>
       </c>
       <c r="C63">
-        <v>-0.07995879141712015</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.08410418460844124</v>
+      </c>
+      <c r="D63">
+        <v>-0.01855641025053827</v>
+      </c>
+      <c r="E63">
+        <v>0.03881312366517663</v>
+      </c>
+      <c r="F63">
+        <v>0.01961505071489434</v>
+      </c>
+      <c r="G63">
+        <v>-0.0246482855247363</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1130637879843128</v>
+        <v>-0.1104921162406079</v>
       </c>
       <c r="C64">
-        <v>-0.06311623185352515</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.06488573514184738</v>
+      </c>
+      <c r="D64">
+        <v>-0.02637752034807495</v>
+      </c>
+      <c r="E64">
+        <v>-0.05237132349123001</v>
+      </c>
+      <c r="F64">
+        <v>-0.01233628897112826</v>
+      </c>
+      <c r="G64">
+        <v>0.02636627095773844</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1610673675486018</v>
+        <v>-0.1631821204472053</v>
       </c>
       <c r="C65">
-        <v>0.058169665342563</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04719399726819008</v>
+      </c>
+      <c r="D65">
+        <v>-0.07390774348254874</v>
+      </c>
+      <c r="E65">
+        <v>-0.006982084433595017</v>
+      </c>
+      <c r="F65">
+        <v>-0.04195139616711886</v>
+      </c>
+      <c r="G65">
+        <v>-0.01605166887484403</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.09577547105188713</v>
+        <v>-0.09120770439234377</v>
       </c>
       <c r="C66">
-        <v>-0.1328636228491113</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.1315089040383332</v>
+      </c>
+      <c r="D66">
+        <v>-0.02640005163340499</v>
+      </c>
+      <c r="E66">
+        <v>0.09740145403063674</v>
+      </c>
+      <c r="F66">
+        <v>0.01735137591018514</v>
+      </c>
+      <c r="G66">
+        <v>-0.0109156425591972</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05065202418343975</v>
+        <v>-0.04400752917251225</v>
       </c>
       <c r="C67">
-        <v>-0.0842400099610825</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.07743517378524231</v>
+      </c>
+      <c r="D67">
+        <v>0.07073117462150447</v>
+      </c>
+      <c r="E67">
+        <v>-0.03204966828757922</v>
+      </c>
+      <c r="F67">
+        <v>-0.04749193122385286</v>
+      </c>
+      <c r="G67">
+        <v>-0.06300793214280419</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1461082985484143</v>
+        <v>-0.1465960575675932</v>
       </c>
       <c r="C68">
-        <v>0.2466773719265535</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.2433924372349727</v>
+      </c>
+      <c r="D68">
+        <v>-0.004171181657449991</v>
+      </c>
+      <c r="E68">
+        <v>0.1520135300545216</v>
+      </c>
+      <c r="F68">
+        <v>0.0650405861614803</v>
+      </c>
+      <c r="G68">
+        <v>0.05685009735859664</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.04004540627150834</v>
+        <v>-0.03821202343054868</v>
       </c>
       <c r="C69">
-        <v>-0.01544726690972039</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.01809881483392652</v>
+      </c>
+      <c r="D69">
+        <v>0.009004558195283442</v>
+      </c>
+      <c r="E69">
+        <v>-0.05734899346563095</v>
+      </c>
+      <c r="F69">
+        <v>-0.03793664526419958</v>
+      </c>
+      <c r="G69">
+        <v>-0.05801235790908403</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.07474430044327611</v>
+        <v>-0.07226222382056711</v>
       </c>
       <c r="C70">
-        <v>-0.09628193860686704</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.09785266912240669</v>
+      </c>
+      <c r="D70">
+        <v>0.5650640643839104</v>
+      </c>
+      <c r="E70">
+        <v>-0.1351246506265263</v>
+      </c>
+      <c r="F70">
+        <v>-0.2731795088633152</v>
+      </c>
+      <c r="G70">
+        <v>0.5091190579875902</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1702345738435235</v>
+        <v>-0.1720957852929308</v>
       </c>
       <c r="C71">
-        <v>0.2501710416614334</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.2482233470916308</v>
+      </c>
+      <c r="D71">
+        <v>0.005231390721535086</v>
+      </c>
+      <c r="E71">
+        <v>0.1575427710323001</v>
+      </c>
+      <c r="F71">
+        <v>0.07516227000404387</v>
+      </c>
+      <c r="G71">
+        <v>0.0657189744338818</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1455839557978681</v>
+        <v>-0.1502141683113731</v>
       </c>
       <c r="C72">
-        <v>-0.008464497300577595</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.007962635991230626</v>
+      </c>
+      <c r="D72">
+        <v>-0.04471633151115518</v>
+      </c>
+      <c r="E72">
+        <v>-0.04257150060450887</v>
+      </c>
+      <c r="F72">
+        <v>-0.06658415139932028</v>
+      </c>
+      <c r="G72">
+        <v>-0.08212738365367779</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1873186037097721</v>
+        <v>-0.1971720082418098</v>
       </c>
       <c r="C73">
-        <v>-0.01753261246465858</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.02080828322140702</v>
+      </c>
+      <c r="D73">
+        <v>-0.02395891174182789</v>
+      </c>
+      <c r="E73">
+        <v>-0.09951093865499272</v>
+      </c>
+      <c r="F73">
+        <v>-0.03665497952122179</v>
+      </c>
+      <c r="G73">
+        <v>-0.03149622332992322</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08723853596652845</v>
+        <v>-0.0862481023227505</v>
       </c>
       <c r="C74">
-        <v>-0.004872113419296117</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.01123695291824079</v>
+      </c>
+      <c r="D74">
+        <v>-0.06696133032409635</v>
+      </c>
+      <c r="E74">
+        <v>-0.0935577903878555</v>
+      </c>
+      <c r="F74">
+        <v>-0.0512881752765542</v>
+      </c>
+      <c r="G74">
+        <v>-0.02391738679310026</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1218092824711458</v>
+        <v>-0.1143527465093151</v>
       </c>
       <c r="C75">
-        <v>-0.02561798277127614</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02618793767442457</v>
+      </c>
+      <c r="D75">
+        <v>-0.02412250788766826</v>
+      </c>
+      <c r="E75">
+        <v>-0.08766949624247916</v>
+      </c>
+      <c r="F75">
+        <v>-0.1192609970365239</v>
+      </c>
+      <c r="G75">
+        <v>-0.07117649182722018</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2436,597 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07993189036593941</v>
+        <v>-0.08859441261258826</v>
       </c>
       <c r="C77">
-        <v>-0.11902116612541</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.1236199746256089</v>
+      </c>
+      <c r="D77">
+        <v>-0.08117800620727306</v>
+      </c>
+      <c r="E77">
+        <v>0.1147481281237498</v>
+      </c>
+      <c r="F77">
+        <v>-0.05691429103854885</v>
+      </c>
+      <c r="G77">
+        <v>0.1297150343471211</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.0764348749465167</v>
+        <v>-0.08290693862959718</v>
       </c>
       <c r="C78">
-        <v>-0.1252141294952055</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.1278147243271108</v>
+      </c>
+      <c r="D78">
+        <v>-0.06066799508798303</v>
+      </c>
+      <c r="E78">
+        <v>0.1080866278188388</v>
+      </c>
+      <c r="F78">
+        <v>-0.08070735837928157</v>
+      </c>
+      <c r="G78">
+        <v>-0.01004636204001744</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1688601074990551</v>
+        <v>-0.1643057738908887</v>
       </c>
       <c r="C79">
-        <v>-0.02084376766508614</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.02042278350567104</v>
+      </c>
+      <c r="D79">
+        <v>-0.01278296311656932</v>
+      </c>
+      <c r="E79">
+        <v>-0.07019869205671979</v>
+      </c>
+      <c r="F79">
+        <v>-0.1038663050488235</v>
+      </c>
+      <c r="G79">
+        <v>-0.05213969335878486</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.07749862989213749</v>
+        <v>-0.07387555333084292</v>
       </c>
       <c r="C80">
-        <v>-0.08449804574052616</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.08019441310635925</v>
+      </c>
+      <c r="D80">
+        <v>0.0001648156191222256</v>
+      </c>
+      <c r="E80">
+        <v>0.05329689919351877</v>
+      </c>
+      <c r="F80">
+        <v>0.07975418355464678</v>
+      </c>
+      <c r="G80">
+        <v>-0.03751051314061447</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1126910315720277</v>
+        <v>-0.106223594904588</v>
       </c>
       <c r="C81">
-        <v>0.0114893809166609</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.01123514309447564</v>
+      </c>
+      <c r="D81">
+        <v>0.002078828040767003</v>
+      </c>
+      <c r="E81">
+        <v>-0.1043524898797361</v>
+      </c>
+      <c r="F81">
+        <v>-0.09984210915059703</v>
+      </c>
+      <c r="G81">
+        <v>-0.09928876926512289</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1626174352019404</v>
+        <v>-0.1581862484353583</v>
       </c>
       <c r="C82">
-        <v>0.01564313926868731</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.01389252306582855</v>
+      </c>
+      <c r="D82">
+        <v>-0.07964145435000311</v>
+      </c>
+      <c r="E82">
+        <v>-0.1492076629862751</v>
+      </c>
+      <c r="F82">
+        <v>-0.05951487077669326</v>
+      </c>
+      <c r="G82">
+        <v>-0.03655129424557597</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.05271582546953445</v>
+        <v>-0.04907867930479068</v>
       </c>
       <c r="C83">
-        <v>-0.06433505538467152</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.05913749266778967</v>
+      </c>
+      <c r="D83">
+        <v>0.02825851340359433</v>
+      </c>
+      <c r="E83">
+        <v>0.008245301192484724</v>
+      </c>
+      <c r="F83">
+        <v>0.0008922248962798772</v>
+      </c>
+      <c r="G83">
+        <v>0.01672290315307168</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.045961525208084</v>
+        <v>-0.04503244396361811</v>
       </c>
       <c r="C84">
-        <v>-0.07392703008464133</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.07231780353712038</v>
+      </c>
+      <c r="D84">
+        <v>0.02190082186900658</v>
+      </c>
+      <c r="E84">
+        <v>-0.006783680713789305</v>
+      </c>
+      <c r="F84">
+        <v>-0.02487120807947567</v>
+      </c>
+      <c r="G84">
+        <v>0.01362763262193703</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1402931617433469</v>
+        <v>-0.1351980842905256</v>
       </c>
       <c r="C85">
-        <v>-0.007134637976300064</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.008454723316375744</v>
+      </c>
+      <c r="D85">
+        <v>-0.08073258569794838</v>
+      </c>
+      <c r="E85">
+        <v>-0.06863530006598917</v>
+      </c>
+      <c r="F85">
+        <v>-0.0977951230164693</v>
+      </c>
+      <c r="G85">
+        <v>-0.05685765298270507</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.07613060386090621</v>
+        <v>-0.07726675179914252</v>
       </c>
       <c r="C86">
-        <v>-0.1650385294698802</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.1708286795350512</v>
+      </c>
+      <c r="D86">
+        <v>0.5572796709780212</v>
+      </c>
+      <c r="E86">
+        <v>0.4429848446091846</v>
+      </c>
+      <c r="F86">
+        <v>-0.04014511690441624</v>
+      </c>
+      <c r="G86">
+        <v>-0.5343953603445895</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.09107397470038665</v>
+        <v>-0.0862422500019446</v>
       </c>
       <c r="C87">
-        <v>-0.1056247836538582</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.1028911987174698</v>
+      </c>
+      <c r="D87">
+        <v>-0.1130702669625476</v>
+      </c>
+      <c r="E87">
+        <v>0.09576747818577354</v>
+      </c>
+      <c r="F87">
+        <v>0.1629843483659312</v>
+      </c>
+      <c r="G87">
+        <v>0.1366423356702981</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.05950296637359836</v>
+        <v>-0.05881222438888512</v>
       </c>
       <c r="C88">
-        <v>-0.06292019025774262</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.06355306656258891</v>
+      </c>
+      <c r="D88">
+        <v>-0.008971834163581697</v>
+      </c>
+      <c r="E88">
+        <v>-0.030513184227018</v>
+      </c>
+      <c r="F88">
+        <v>-0.02793140681295623</v>
+      </c>
+      <c r="G88">
+        <v>-0.001275862082480628</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1550891509264474</v>
+        <v>-0.1535240964723946</v>
       </c>
       <c r="C89">
-        <v>0.1961428265299605</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.2029391720525064</v>
+      </c>
+      <c r="D89">
+        <v>-0.00782750788266005</v>
+      </c>
+      <c r="E89">
+        <v>0.1047666123627857</v>
+      </c>
+      <c r="F89">
+        <v>0.06428039890585109</v>
+      </c>
+      <c r="G89">
+        <v>0.03170974691800013</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1875927084978739</v>
+        <v>-0.1899491162309413</v>
       </c>
       <c r="C90">
-        <v>0.2281503151256405</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.2294989562484912</v>
+      </c>
+      <c r="D90">
+        <v>0.007211013969091368</v>
+      </c>
+      <c r="E90">
+        <v>0.1851936741861683</v>
+      </c>
+      <c r="F90">
+        <v>0.1212121374174099</v>
+      </c>
+      <c r="G90">
+        <v>0.06914929899783397</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.12581828722979</v>
+        <v>-0.1198038392517973</v>
       </c>
       <c r="C91">
-        <v>0.01951850832560585</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.01908931496910312</v>
+      </c>
+      <c r="D91">
+        <v>0.02853950225405987</v>
+      </c>
+      <c r="E91">
+        <v>-0.1310649514913678</v>
+      </c>
+      <c r="F91">
+        <v>-0.1089348333049509</v>
+      </c>
+      <c r="G91">
+        <v>-0.1214924454483006</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1778728031437634</v>
+        <v>-0.1786671427456612</v>
       </c>
       <c r="C92">
-        <v>0.2546983334704023</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.2658557410274984</v>
+      </c>
+      <c r="D92">
+        <v>0.003456338558992446</v>
+      </c>
+      <c r="E92">
+        <v>0.217273669905606</v>
+      </c>
+      <c r="F92">
+        <v>0.03534506932109308</v>
+      </c>
+      <c r="G92">
+        <v>0.04594514191757867</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1809961714618722</v>
+        <v>-0.1872664113897277</v>
       </c>
       <c r="C93">
-        <v>0.2206122578888328</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.2216276486201271</v>
+      </c>
+      <c r="D93">
+        <v>0.009199575769961813</v>
+      </c>
+      <c r="E93">
+        <v>0.1221370507435081</v>
+      </c>
+      <c r="F93">
+        <v>-0.005065051019135971</v>
+      </c>
+      <c r="G93">
+        <v>0.04822012464306478</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1195792650831898</v>
+        <v>-0.1139170864924793</v>
       </c>
       <c r="C94">
-        <v>-0.03201304459467939</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.03241581782166089</v>
+      </c>
+      <c r="D94">
+        <v>-0.02145742289105582</v>
+      </c>
+      <c r="E94">
+        <v>-0.07798224691539117</v>
+      </c>
+      <c r="F94">
+        <v>-0.113134371172516</v>
+      </c>
+      <c r="G94">
+        <v>-0.07071052136049771</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1186576589628332</v>
+        <v>-0.1178057894401821</v>
       </c>
       <c r="C95">
-        <v>-0.1089861475105972</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.1193479179334801</v>
+      </c>
+      <c r="D95">
+        <v>-0.002717147191008502</v>
+      </c>
+      <c r="E95">
+        <v>0.08166242586846606</v>
+      </c>
+      <c r="F95">
+        <v>-0.003744414814028908</v>
+      </c>
+      <c r="G95">
+        <v>-0.002302631856514958</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1158565318748278</v>
+        <v>-0.1139661496675796</v>
       </c>
       <c r="C96">
-        <v>-0.1227192537692023</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>0.1255848575112951</v>
+      </c>
+      <c r="D96">
+        <v>0.03524969091959659</v>
+      </c>
+      <c r="E96">
+        <v>-0.01327221606822604</v>
+      </c>
+      <c r="F96">
+        <v>-0.04217836163416739</v>
+      </c>
+      <c r="G96">
+        <v>0.1225906478500599</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1989698500484342</v>
+        <v>-0.2030642091694897</v>
       </c>
       <c r="C97">
-        <v>-0.01580336534799021</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.007573625974203801</v>
+      </c>
+      <c r="D97">
+        <v>0.2082979178976369</v>
+      </c>
+      <c r="E97">
+        <v>-0.4714687956680862</v>
+      </c>
+      <c r="F97">
+        <v>0.6247533318988784</v>
+      </c>
+      <c r="G97">
+        <v>-0.2963976414432621</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1958748454828923</v>
+        <v>-0.2036727026001163</v>
       </c>
       <c r="C98">
-        <v>-0.02386386944650051</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.02493931098429006</v>
+      </c>
+      <c r="D98">
+        <v>0.08107898652906427</v>
+      </c>
+      <c r="E98">
+        <v>-0.06106105362414446</v>
+      </c>
+      <c r="F98">
+        <v>0.08598103870088014</v>
+      </c>
+      <c r="G98">
+        <v>0.1419605471185525</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.04842032459783061</v>
+        <v>-0.04891773565180028</v>
       </c>
       <c r="C99">
-        <v>-0.06269633988956365</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.0621459528690187</v>
+      </c>
+      <c r="D99">
+        <v>-0.003456644186086322</v>
+      </c>
+      <c r="E99">
+        <v>0.02460338349972169</v>
+      </c>
+      <c r="F99">
+        <v>0.03302999307448342</v>
+      </c>
+      <c r="G99">
+        <v>0.01130099788913814</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.09879262867499271</v>
+        <v>-0.09580538252783545</v>
       </c>
       <c r="C100">
-        <v>-0.3177786857824345</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>0.302580769122293</v>
+      </c>
+      <c r="D100">
+        <v>0.1468395892586577</v>
+      </c>
+      <c r="E100">
+        <v>0.04799831842574686</v>
+      </c>
+      <c r="F100">
+        <v>0.4552006959848861</v>
+      </c>
+      <c r="G100">
+        <v>0.3475533221068765</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.02503286406023562</v>
+        <v>-0.02668301580948005</v>
       </c>
       <c r="C101">
-        <v>-0.05438357839342851</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.0540726497306924</v>
+      </c>
+      <c r="D101">
+        <v>-0.007867329682619302</v>
+      </c>
+      <c r="E101">
+        <v>0.06483297057538791</v>
+      </c>
+      <c r="F101">
+        <v>-0.0004174041008004125</v>
+      </c>
+      <c r="G101">
+        <v>-0.0149830874349713</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
